--- a/18 financial/self_long.xlsx
+++ b/18 financial/self_long.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01 逻辑" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="168">
   <si>
     <t>趋势价值要领：</t>
   </si>
@@ -638,16 +638,19 @@
 第二层识别与潮流逆向的波浪。当周线趋势向上时，日线下跌提供了买入时机；当周线趋势向下时，日线上涨提供了放空时机。劲道指数和透视指标
 第三层滤网：当周线趋势上升而日线振荡指标下降时，运用追踪型买进停止技术。当周线趋势下跌而日线振荡指标上升时，运用追踪型卖出停止技术。</t>
   </si>
+  <si>
+    <t>每年30%的资产移到债券，最好根据美林时钟。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.000"/>
@@ -735,22 +738,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,33 +758,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -834,6 +815,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -848,16 +852,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,7 +923,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +983,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,19 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,127 +1085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,30 +1183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1252,13 +1231,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1277,6 +1260,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1285,10 +1288,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1297,16 +1300,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1315,121 +1318,124 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1481,6 +1487,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2036,106 +2048,106 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:22">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="34" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="34" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="33" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="4" customFormat="1" ht="33" customHeight="1" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="39" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1" ht="39" customHeight="1" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="42" customHeight="1" spans="1:1">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="4" customFormat="1" ht="42" customHeight="1" spans="1:1">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="42" customHeight="1" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="4" customFormat="1" ht="42" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="39" customHeight="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="4" customFormat="1" ht="39" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:1">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="4" customFormat="1" ht="39" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="4" customFormat="1" ht="39" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="27" customHeight="1" spans="1:1">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="4" customFormat="1" ht="27" customHeight="1" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="42" customHeight="1" spans="1:1">
-      <c r="A11" s="3" t="s">
+    <row r="11" s="4" customFormat="1" ht="42" customHeight="1" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:22">
-      <c r="A12" s="3" t="s">
+    <row r="12" s="3" customFormat="1" ht="33" customHeight="1" spans="1:22">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2164,447 +2176,447 @@
   <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M1"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" style="20" customWidth="1"/>
-    <col min="2" max="3" width="18.8333333333333" style="20" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="12.3333333333333" style="23" customWidth="1"/>
+    <col min="2" max="3" width="18.8333333333333" style="23" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="106" customHeight="1" spans="1:13">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-    </row>
-    <row r="2" s="18" customFormat="1" ht="51" customHeight="1" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" s="21" customFormat="1" ht="51" customHeight="1" spans="1:4">
+      <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" s="18" customFormat="1" ht="28" customHeight="1" spans="1:34">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" s="21" customFormat="1" ht="28" customHeight="1" spans="1:34">
+      <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-    </row>
-    <row r="4" s="18" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+    </row>
+    <row r="4" s="21" customFormat="1" ht="32" customHeight="1" spans="1:4">
+      <c r="A4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" s="18" customFormat="1" ht="74" customHeight="1" spans="1:4">
-      <c r="A5" s="26" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" s="21" customFormat="1" ht="74" customHeight="1" spans="1:4">
+      <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" s="18" customFormat="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A6" s="28" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" s="21" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A7" s="28" t="s">
+    <row r="7" s="21" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30" t="str">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="str">
         <f>IF(B7&lt;50%,IF(C7&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A8" s="28" t="s">
+    <row r="8" s="21" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="str">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="str">
         <f>IF(B8&lt;50%,IF(C8&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A9" s="28" t="s">
+    <row r="9" s="21" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="31" t="str">
+      <c r="B9" s="34" t="str">
         <f>IF(D7="符合条件","可以入场",IF(D8="符合条件","可以入场","不能入场"))</f>
         <v>可以入场</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="12" s="19" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A12" s="34" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="12" s="22" customFormat="1" ht="13.5" spans="1:2">
+      <c r="A12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="34"/>
-    </row>
-    <row r="13" s="19" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A13" s="19" t="s">
+      <c r="B12" s="37"/>
+    </row>
+    <row r="13" s="22" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="1" ht="13.5" spans="5:6">
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" s="19" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A15" s="36" t="s">
+    <row r="14" s="22" customFormat="1" ht="13.5" spans="5:6">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" s="22" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" s="19" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" s="22" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" s="19" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" s="22" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="E17" s="35" t="s">
+      <c r="C17" s="43"/>
+      <c r="E17" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="41"/>
-      <c r="E18" s="37" t="s">
+    <row r="18" s="22" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="44"/>
+      <c r="E18" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A19" s="34" t="s">
+    <row r="19" s="22" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A19" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="E19" s="42">
+      <c r="B19" s="37"/>
+      <c r="E19" s="45">
         <v>38718</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="40">
         <v>2.72</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="46">
         <v>2.1</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="47">
         <f t="shared" ref="H19:H24" si="0">F19/G19</f>
         <v>1.2952380952381</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="19" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E20" s="42">
+    <row r="20" s="22" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E20" s="45">
         <v>39448</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="40">
         <v>0.36</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="46">
         <v>2.99</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="47">
         <f t="shared" si="0"/>
         <v>0.120401337792642</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" s="19" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E21" s="42">
+    <row r="21" s="22" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E21" s="45">
         <v>41791</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="40">
         <v>3.76</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="46">
         <v>3.3</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="47">
         <f t="shared" si="0"/>
         <v>1.13939393939394</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" s="19" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A22" s="35" t="s">
+    <row r="22" s="22" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="45">
         <v>42156</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="40">
         <v>1.93</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="40">
         <v>2.61</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="47">
         <f t="shared" si="0"/>
         <v>0.739463601532567</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" s="19" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A23" s="35" t="s">
+    <row r="23" s="22" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="45">
         <v>43435</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="46">
         <v>3.05</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="40">
         <v>2.95</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="47">
         <f t="shared" si="0"/>
         <v>1.03389830508475</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" s="19" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E24" s="42">
+    <row r="24" s="22" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E24" s="45">
         <v>43556</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="40">
         <v>2.47</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="40">
         <v>3.04</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="47">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="I24" s="55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" s="19" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="46"/>
-    </row>
-    <row r="26" s="19" customFormat="1" ht="13.5" spans="5:7">
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" s="19" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A27" s="37" t="s">
+    <row r="25" s="22" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" s="22" customFormat="1" ht="13.5" spans="5:7">
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" s="22" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A27" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" s="19" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A28" s="48" t="s">
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" s="22" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A28" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="29" s="19" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A29" s="51" t="s">
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+    </row>
+    <row r="29" s="22" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A29" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" s="19" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A30" s="52" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" s="22" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A30" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" s="19" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A31" s="53" t="s">
+      <c r="C30" s="39"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" s="22" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A31" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" s="19" customFormat="1" ht="13.5"/>
-    <row r="33" s="19" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A33" s="54" t="s">
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" s="22" customFormat="1" ht="13.5"/>
+    <row r="33" s="22" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A33" s="57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" s="19" customFormat="1" ht="13.5"/>
-    <row r="35" s="19" customFormat="1" ht="13.5"/>
-    <row r="36" s="19" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A36" s="35" t="s">
+    <row r="34" s="22" customFormat="1" ht="13.5"/>
+    <row r="35" s="22" customFormat="1" ht="13.5"/>
+    <row r="36" s="22" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A36" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" s="19" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A37" s="35">
+    <row r="37" s="22" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A37" s="38">
         <v>2.86</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="38">
         <v>2.937</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="58">
         <f>A37/B37</f>
         <v>0.973782771535581</v>
       </c>
@@ -2632,562 +2644,585 @@
   <sheetPr/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:V10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:22">
+      <c r="A1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="33" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="22" customHeight="1" spans="1:22">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:22">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:22">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:22">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:22">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:22">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:22">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" ht="49" customHeight="1" spans="1:22">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" ht="69" customHeight="1" spans="1:22">
+      <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" ht="200" customHeight="1" spans="1:22">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" ht="218" customHeight="1" spans="1:22">
+      <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" ht="128" customHeight="1" spans="1:22">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" ht="174" customHeight="1" spans="1:22">
+      <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3233,69 +3268,69 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" ht="192" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="35" ht="216" customHeight="1" spans="1:17">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3323,148 +3358,148 @@
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" ht="18.75" spans="1:20">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" ht="18.75" spans="1:20">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:20">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" customFormat="1" ht="6" hidden="1" customHeight="1"/>
     <row r="6" customFormat="1" hidden="1"/>
     <row r="8" spans="1:20">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
     </row>
     <row r="10" ht="26" customHeight="1" spans="1:1">
       <c r="A10" t="s">
@@ -3482,7 +3517,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3568,7 +3603,7 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
@@ -3579,76 +3614,76 @@
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" ht="18.75" spans="1:20">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:20">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:1">
       <c r="A7" t="s">
@@ -3656,21 +3691,21 @@
       </c>
     </row>
     <row r="8" ht="67" customHeight="1" spans="1:13">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
@@ -3678,20 +3713,20 @@
       </c>
     </row>
     <row r="16" ht="148" customHeight="1" spans="1:12">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
@@ -3739,16 +3774,16 @@
       </c>
     </row>
     <row r="44" ht="174" customHeight="1" spans="1:8">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3777,79 +3812,79 @@
   <cols>
     <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
-    <col min="3" max="3" width="80.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="80.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="52.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" ht="67" customHeight="1" spans="1:15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" ht="18.75" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3857,10 +3892,10 @@
       <c r="A6" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3868,10 +3903,10 @@
       <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3879,10 +3914,10 @@
       <c r="A8" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3890,10 +3925,10 @@
       <c r="A9" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3901,7 +3936,7 @@
       <c r="A10" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3909,7 +3944,7 @@
       <c r="A11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3917,10 +3952,10 @@
       <c r="A12" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3928,7 +3963,7 @@
       <c r="A13" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3936,7 +3971,7 @@
       <c r="A14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3944,7 +3979,7 @@
       <c r="A15" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3952,7 +3987,7 @@
       <c r="A16" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3960,70 +3995,70 @@
       <c r="A17" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" ht="148.5" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" ht="40.5" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="24" ht="209" customHeight="1" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4031,7 +4066,7 @@
       <c r="A25" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4039,7 +4074,7 @@
       <c r="A26" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4066,55 +4101,55 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A2" sqref="A2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" ht="244" customHeight="1" spans="1:17">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4129,14 +4164,38 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A16:P16"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="16" ht="28" customHeight="1" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:P16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/18 financial/self_long.xlsx
+++ b/18 financial/self_long.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01 逻辑" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
   <si>
     <t>趋势价值要领：</t>
   </si>
@@ -542,16 +542,22 @@
     <t>股价增长波动模型</t>
   </si>
   <si>
-    <t>波动水位=股价/指数化增长模型 认为波动范围在3%~300%之间，50%买，200%卖。自然增长油roe决定，roe决定有竞争力</t>
+    <t>波动水位=股价/指数化增长模型 认为波动范围在3%~300%之间，50%买，200%卖。稳定盈利的公司自然增长以roe衡量</t>
   </si>
   <si>
     <t>pe band</t>
   </si>
   <si>
-    <t>？</t>
+    <t>PE Band用来判断是否“好公司”、“好价格”、“估值高低”等：按预估pe，股价分布；
+1 斜率向上代表股价上升，每股eps在上升。
+2 股价线有上下起伏，整体向上，说明该公司有周期性。注意把控
+https://www.zmtc.com/caiji/2360.html</t>
   </si>
   <si>
     <t>pb band</t>
+  </si>
+  <si>
+    <t>公司净利润很差，波动很大，波动很大（如周期股），这时候PE Band威力就有限，用pb band</t>
   </si>
   <si>
     <t>折现率</t>
@@ -647,13 +653,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -731,14 +737,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,16 +750,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,34 +780,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,8 +804,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,14 +836,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,15 +864,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,7 +929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,19 +941,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +1049,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,43 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,61 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,17 +1204,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,11 +1231,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,6 +1261,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1260,26 +1286,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1288,10 +1294,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1300,137 +1306,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1451,9 +1457,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1550,10 +1553,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,7 +1600,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1678,7 +1681,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11983720" y="18559780"/>
+          <a:off x="11983720" y="19817080"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1739,7 +1742,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="16332200"/>
+          <a:off x="5772150" y="17589500"/>
           <a:ext cx="6115050" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2181,442 +2184,442 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" style="23" customWidth="1"/>
-    <col min="2" max="3" width="18.8333333333333" style="23" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="12.3333333333333" style="22" customWidth="1"/>
+    <col min="2" max="3" width="18.8333333333333" style="22" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="106" customHeight="1" spans="1:13">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-    </row>
-    <row r="2" s="21" customFormat="1" ht="51" customHeight="1" spans="1:4">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" s="20" customFormat="1" ht="51" customHeight="1" spans="1:4">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" s="21" customFormat="1" ht="28" customHeight="1" spans="1:34">
-      <c r="A3" s="27" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" s="20" customFormat="1" ht="28" customHeight="1" spans="1:34">
+      <c r="A3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-    </row>
-    <row r="4" s="21" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+    </row>
+    <row r="4" s="20" customFormat="1" ht="32" customHeight="1" spans="1:4">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" s="21" customFormat="1" ht="74" customHeight="1" spans="1:4">
-      <c r="A5" s="29" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" s="20" customFormat="1" ht="74" customHeight="1" spans="1:4">
+      <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" s="21" customFormat="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A6" s="31" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="21" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A7" s="31" t="s">
+    <row r="7" s="20" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="str">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="str">
         <f>IF(B7&lt;50%,IF(C7&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="8" s="21" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A8" s="31" t="s">
+    <row r="8" s="20" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="str">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32" t="str">
         <f>IF(B8&lt;50%,IF(C8&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="9" s="21" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A9" s="31" t="s">
+    <row r="9" s="20" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="34" t="str">
+      <c r="B9" s="33" t="str">
         <f>IF(D7="符合条件","可以入场",IF(D8="符合条件","可以入场","不能入场"))</f>
         <v>可以入场</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-    </row>
-    <row r="12" s="22" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A12" s="37" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="12" s="21" customFormat="1" ht="13.5" spans="1:2">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="37"/>
-    </row>
-    <row r="13" s="22" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="36"/>
+    </row>
+    <row r="13" s="21" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A13" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" s="22" customFormat="1" ht="13.5" spans="5:6">
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" s="22" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A15" s="39" t="s">
+    <row r="14" s="21" customFormat="1" ht="13.5" spans="5:6">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" s="21" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-    </row>
-    <row r="16" s="22" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" s="21" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" s="22" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" s="21" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="E17" s="38" t="s">
+      <c r="C17" s="42"/>
+      <c r="E17" s="37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" s="22" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="44"/>
-      <c r="E18" s="40" t="s">
+    <row r="18" s="21" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="E18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" s="22" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A19" s="37" t="s">
+    <row r="19" s="21" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="E19" s="45">
+      <c r="B19" s="36"/>
+      <c r="E19" s="44">
         <v>38718</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <v>2.72</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="45">
         <v>2.1</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="46">
         <f t="shared" ref="H19:H24" si="0">F19/G19</f>
         <v>1.2952380952381</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="22" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E20" s="45">
+    <row r="20" s="21" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E20" s="44">
         <v>39448</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>0.36</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <v>2.99</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <f t="shared" si="0"/>
         <v>0.120401337792642</v>
       </c>
-      <c r="I20" s="56" t="s">
+      <c r="I20" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" s="22" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E21" s="45">
+    <row r="21" s="21" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E21" s="44">
         <v>41791</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <v>3.76</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="45">
         <v>3.3</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="46">
         <f t="shared" si="0"/>
         <v>1.13939393939394</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" s="22" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A22" s="38" t="s">
+    <row r="22" s="21" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A22" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="44">
         <v>42156</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="39">
         <v>1.93</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="39">
         <v>2.61</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="46">
         <f t="shared" si="0"/>
         <v>0.739463601532567</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" s="22" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A23" s="38" t="s">
+    <row r="23" s="21" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A23" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="44">
         <v>43435</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="45">
         <v>3.05</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="39">
         <v>2.95</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="46">
         <f t="shared" si="0"/>
         <v>1.03389830508475</v>
       </c>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" s="22" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E24" s="45">
+    <row r="24" s="21" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E24" s="44">
         <v>43556</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="39">
         <v>2.47</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="39">
         <v>3.04</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="46">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="I24" s="54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" s="22" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="49"/>
-    </row>
-    <row r="26" s="22" customFormat="1" ht="13.5" spans="5:7">
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" s="22" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A27" s="40" t="s">
+    <row r="25" s="21" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="48"/>
+    </row>
+    <row r="26" s="21" customFormat="1" ht="13.5" spans="5:7">
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" s="21" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A27" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" s="22" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A28" s="51" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" s="21" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A28" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-    </row>
-    <row r="29" s="22" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A29" s="54" t="s">
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" s="21" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" s="22" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A30" s="55" t="s">
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" s="21" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A30" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" s="22" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A31" s="56" t="s">
+      <c r="C30" s="38"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+    </row>
+    <row r="31" s="21" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A31" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" s="22" customFormat="1" ht="13.5"/>
-    <row r="33" s="22" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A33" s="57" t="s">
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+    </row>
+    <row r="32" s="21" customFormat="1" ht="13.5"/>
+    <row r="33" s="21" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A33" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" s="22" customFormat="1" ht="13.5"/>
-    <row r="35" s="22" customFormat="1" ht="13.5"/>
-    <row r="36" s="22" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A36" s="38" t="s">
+    <row r="34" s="21" customFormat="1" ht="13.5"/>
+    <row r="35" s="21" customFormat="1" ht="13.5"/>
+    <row r="36" s="21" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A36" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" s="22" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A37" s="38">
+    <row r="37" s="21" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A37" s="37">
         <v>2.86</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="37">
         <v>2.937</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="57">
         <f>A37/B37</f>
         <v>0.973782771535581</v>
       </c>
@@ -2644,37 +2647,37 @@
   <sheetPr/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:V11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:22">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" s="4" customFormat="1" ht="22" customHeight="1" spans="1:22">
       <c r="A2" s="6" t="s">
@@ -3295,21 +3298,21 @@
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="35" ht="216" customHeight="1" spans="1:17">
       <c r="A35" s="4" t="s">
@@ -3382,7 +3385,7 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" ht="18.75" spans="1:20">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="3"/>
@@ -3406,7 +3409,7 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" ht="18.75" spans="1:20">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="3"/>
@@ -3430,7 +3433,7 @@
       <c r="T3" s="3"/>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:20">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="3"/>
@@ -3517,7 +3520,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3638,7 +3641,7 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" ht="18.75" spans="1:20">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="3"/>
@@ -3662,7 +3665,7 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:20">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="4"/>
@@ -3804,8 +3807,8 @@
   <sheetPr/>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3843,48 +3846,48 @@
       <c r="A2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" ht="18.75" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3983,7 +3986,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" ht="21" customHeight="1" spans="1:3">
+    <row r="16" ht="60" customHeight="1" spans="1:3">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -3991,91 +3994,91 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" ht="24" customHeight="1" spans="1:3">
+    <row r="17" ht="84" customHeight="1" spans="1:3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="15"/>
+        <v>148</v>
+      </c>
+      <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" ht="148.5" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" ht="40.5" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" ht="209" customHeight="1" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:3">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:3">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4108,7 +4111,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4132,7 +4135,7 @@
     </row>
     <row r="2" ht="244" customHeight="1" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4174,7 +4177,7 @@
   <sheetData>
     <row r="16" ht="28" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/18 financial/self_long.xlsx
+++ b/18 financial/self_long.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 逻辑" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="153">
   <si>
     <t>趋势价值要领：</t>
   </si>
@@ -58,13 +58,6 @@
   </si>
   <si>
     <t xml:space="preserve">年报、研报、利润表、现金流量表、资产负债表   萝卜投研、理杏仁、i问财、东方财富网的研报模块、股票研究报告网、慧博智能策略终端   </t>
-  </si>
-  <si>
-    <t>怎么躲过崩盘，只能尽快观测。
-a崩盘不外乎市场资金紧张了，如2015年6月暴跌前，银行拆借利率对10年期利率的贴水在变小，说明流动性紧张
-b连擦鞋的孩童都大厅股票就离崩盘不远了
-c 市盈率很高，风险很大。A股市盈率高，杠杆大，在上证指数到5000点，整体市盈率高，在跌破十日均线后就离场了
-a买看跌期权保护，如3个月期权费用是3%，如果不跌也就少赚了3%而已 b逐步把资产转移到低估值的资产或股票</t>
   </si>
   <si>
     <t>整体市场风险以及合适投资机会</t>
@@ -206,6 +199,12 @@
   </si>
   <si>
     <t>当前股票吸引力指数N</t>
+  </si>
+  <si>
+    <t>保护方法：
+a离开
+b对冲
+c转移到低估值的资产或股票</t>
   </si>
   <si>
     <t xml:space="preserve">                                             筛选条件</t>
@@ -290,61 +289,16 @@
     <t>权重：1-3年，经济大势&gt;估值&gt;公司 30年周期公司&gt;估值&gt;经济大势</t>
   </si>
   <si>
-    <t>政策的本质是中国是社会主义国家体制</t>
-  </si>
-  <si>
-    <t>资金的本质是博弈。主力跟中小散都试图用低价买过对方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">政策指标   </t>
-  </si>
-  <si>
-    <t>十年国债利率</t>
-  </si>
-  <si>
-    <t>银行提准</t>
-  </si>
-  <si>
-    <t>cpi</t>
-  </si>
-  <si>
-    <t>http://www.zgzcinfo.cn/</t>
-  </si>
-  <si>
-    <t>货币政策：降息利好加息利空</t>
-  </si>
-  <si>
-    <t>通胀导致加息</t>
-  </si>
-  <si>
-    <t>70pe以上个股占&lt;10%入市，&gt;45%离开</t>
-  </si>
-  <si>
-    <t>股债利差（股市pe-长期国债利率） 大进小出</t>
-  </si>
-  <si>
-    <t>沪深300，中证500，近十年pe在0-50%内，pb在0-20%，任一一个满足即可</t>
-  </si>
-  <si>
-    <t>资金指标</t>
-  </si>
-  <si>
-    <t>成交量低位放量买，高位放量卖</t>
-  </si>
-  <si>
-    <t>涨跌家数</t>
-  </si>
-  <si>
-    <t>主力跟中小散户资金流对比，跟主力一起</t>
-  </si>
-  <si>
-    <t>两市融资余额，可以作为风险指标，如2015年融资余额高达2万亿，这是融资来的非常危险</t>
-  </si>
-  <si>
-    <t>投资者开户统计，突然暴涨危险</t>
-  </si>
-  <si>
-    <t>泰康资产 社保基金 大资金</t>
+    <t>政策的本质是中国是社会主义国家体制，资金的本质是博弈。主力跟中小散都试图用低价买过对方</t>
+  </si>
+  <si>
+    <t>十年国债利率
+银行是否放水？ 提准变动，降息利好加息利空
+70pe以上个股占&lt;10%入市，&gt;45%离开
+新高新低
+主力跟中小散户资金流对比，跟主力一起
+两市融资余额，可以作为风险指标，如2015年融资余额高达2万亿，这是融资来的非常危险
+泰康资产 社保基金 大资金</t>
   </si>
   <si>
     <t>公司的本质是盈利。盈利的本质是供不应求。供这端：看竞争格局；需求这端看市场容量。</t>
@@ -580,6 +534,9 @@
 </t>
   </si>
   <si>
+    <t>时间太长</t>
+  </si>
+  <si>
     <t>pb 三段</t>
   </si>
   <si>
@@ -636,13 +593,7 @@
 基本面恶化；
 贵了，怎么卖出  溢价卖出 推荐到估值(要重新估值)时溢价20%，好公司可以给到40%溢价率，分档卖出；
 有比你更好的，换车道
-五档容错（间隔10%-15%）调仓“强不换弱”“弱小赚可换强”“挡位互换”很多第四第五档的钱根本用不到可以挪到别的地方防守，滚动
-三层过滤网
-在上升趋势中，趋势跟随指标上升并发出买入信号，而振荡指标却变得超买并发出卖出信号；在下跌趋势中，趋势跟随指标下降并发出放空信号，而振荡指标却变得超卖并发出买入信号。
-每位交易者都需决定他想从什么样的时间周期来操作。三重滤网称之为中期。长期指较之高一个层级的时间周期，短期指较之低一个层级的时间周期。
-第一层是利用趋势跟随指标来判断长期趋势。MACD柱的倾斜方向
-第二层识别与潮流逆向的波浪。当周线趋势向上时，日线下跌提供了买入时机；当周线趋势向下时，日线上涨提供了放空时机。劲道指数和透视指标
-第三层滤网：当周线趋势上升而日线振荡指标下降时，运用追踪型买进停止技术。当周线趋势下跌而日线振荡指标上升时，运用追踪型卖出停止技术。</t>
+五档容错（间隔10%-15%）调仓“强不换弱”“弱小赚可换强”“挡位互换”很多第四第五档的钱根本用不到可以挪到别的地方防守，滚动</t>
   </si>
   <si>
     <t>每年30%的资产移到债券，最好根据美林时钟。</t>
@@ -653,13 +604,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -689,14 +640,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -737,36 +680,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,7 +703,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,11 +760,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,15 +800,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,9 +816,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,7 +880,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,73 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,13 +952,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,13 +1000,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,37 +1036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,17 +1140,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,11 +1158,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,6 +1193,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,21 +1237,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1294,10 +1245,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1306,137 +1257,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,95 +1406,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1553,10 +1507,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1582,10 +1536,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,11 +1551,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1681,7 +1641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11983720" y="19817080"/>
+          <a:off x="11983720" y="21087080"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1742,7 +1702,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="17589500"/>
+          <a:off x="5772150" y="18859500"/>
           <a:ext cx="6115050" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2176,466 +2136,466 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" style="22" customWidth="1"/>
-    <col min="2" max="3" width="18.8333333333333" style="22" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="12.3333333333333" style="25" customWidth="1"/>
+    <col min="2" max="3" width="18.8333333333333" style="25" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="106" customHeight="1" spans="1:13">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="23" customFormat="1" ht="51" customHeight="1" spans="1:4">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" s="20" customFormat="1" ht="51" customHeight="1" spans="1:4">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" s="23" customFormat="1" ht="28" customHeight="1" spans="1:34">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" s="20" customFormat="1" ht="28" customHeight="1" spans="1:34">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+    </row>
+    <row r="3" s="23" customFormat="1" ht="32" customHeight="1" spans="1:4">
       <c r="A3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-    </row>
-    <row r="4" s="20" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A4" s="25" t="s">
+    </row>
+    <row r="4" s="23" customFormat="1" ht="74" customHeight="1" spans="1:4">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" s="20" customFormat="1" ht="74" customHeight="1" spans="1:4">
-      <c r="A5" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" s="23" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="30" t="s">
+    </row>
+    <row r="6" s="23" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A6" s="31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" s="20" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A7" s="30" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="str">
+        <f>IF(B6&lt;50%,IF(C6&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
+        <v>符合条件</v>
+      </c>
+    </row>
+    <row r="7" s="23" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="str">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="str">
         <f>IF(B7&lt;50%,IF(C7&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A8" s="30" t="s">
+    <row r="8" s="23" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32" t="str">
-        <f>IF(B8&lt;50%,IF(C8&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
-        <v>符合条件</v>
-      </c>
-    </row>
-    <row r="9" s="20" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A9" s="30" t="s">
+      <c r="B8" s="34" t="str">
+        <f>IF(D6="符合条件","可以入场",IF(D7="符合条件","可以入场","不能入场"))</f>
+        <v>可以入场</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="11" s="24" customFormat="1" ht="13.5" spans="1:2">
+      <c r="A11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="33" t="str">
-        <f>IF(D7="符合条件","可以入场",IF(D8="符合条件","可以入场","不能入场"))</f>
-        <v>可以入场</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-    </row>
-    <row r="12" s="21" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A12" s="36" t="s">
+      <c r="B11" s="37"/>
+    </row>
+    <row r="12" s="24" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="36"/>
-    </row>
-    <row r="13" s="21" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A13" s="21" t="s">
+    </row>
+    <row r="13" s="24" customFormat="1" ht="13.5" spans="5:6">
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" s="24" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A14" s="39" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" s="21" customFormat="1" ht="13.5" spans="5:6">
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" s="21" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A15" s="38" t="s">
+      <c r="B14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="C14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" s="24" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-    </row>
-    <row r="16" s="21" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" s="24" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="37"/>
-    </row>
-    <row r="17" s="21" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38" t="s">
+      <c r="C16" s="43"/>
+      <c r="E16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="E17" s="37" t="s">
+    </row>
+    <row r="17" s="24" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="44"/>
+      <c r="E17" s="40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" s="21" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="43"/>
-      <c r="E18" s="39" t="s">
+      <c r="F17" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="G17" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="H17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="I17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="39" t="s">
+    </row>
+    <row r="18" s="24" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A18" s="37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" s="21" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A19" s="36" t="s">
+      <c r="B18" s="37"/>
+      <c r="E18" s="45">
+        <v>38718</v>
+      </c>
+      <c r="F18" s="40">
+        <v>2.72</v>
+      </c>
+      <c r="G18" s="46">
+        <v>2.1</v>
+      </c>
+      <c r="H18" s="47">
+        <f t="shared" ref="H18:H23" si="0">F18/G18</f>
+        <v>1.2952380952381</v>
+      </c>
+      <c r="I18" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="E19" s="44">
-        <v>38718</v>
-      </c>
-      <c r="F19" s="39">
-        <v>2.72</v>
-      </c>
-      <c r="G19" s="45">
-        <v>2.1</v>
-      </c>
-      <c r="H19" s="46">
-        <f t="shared" ref="H19:H24" si="0">F19/G19</f>
-        <v>1.2952380952381</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" s="21" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E20" s="44">
+    </row>
+    <row r="19" s="24" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E19" s="45">
         <v>39448</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F19" s="40">
         <v>0.36</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G19" s="46">
         <v>2.99</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H19" s="47">
         <f t="shared" si="0"/>
         <v>0.120401337792642</v>
       </c>
-      <c r="I20" s="55" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" s="21" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E21" s="44">
+      <c r="I19" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" s="24" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E20" s="45">
         <v>41791</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F20" s="40">
         <v>3.76</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G20" s="46">
         <v>3.3</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H20" s="47">
         <f t="shared" si="0"/>
         <v>1.13939393939394</v>
       </c>
-      <c r="I21" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" s="21" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A22" s="37" t="s">
+      <c r="I20" s="51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" s="24" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="44">
+      <c r="E21" s="45">
         <v>42156</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F21" s="40">
         <v>1.93</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G21" s="40">
         <v>2.61</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H21" s="47">
         <f t="shared" si="0"/>
         <v>0.739463601532567</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I21" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" s="24" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A22" s="38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" s="21" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A23" s="37" t="s">
+      <c r="B22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="44">
+      <c r="E22" s="45">
         <v>43435</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F22" s="46">
         <v>3.05</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G22" s="40">
         <v>2.95</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H22" s="47">
         <f t="shared" si="0"/>
         <v>1.03389830508475</v>
       </c>
-      <c r="I23" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" s="21" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E24" s="44">
+      <c r="I22" s="51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" s="24" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E23" s="45">
         <v>43556</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F23" s="40">
         <v>2.47</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G23" s="40">
         <v>3.04</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H23" s="47">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="I24" s="54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" s="21" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="48"/>
-    </row>
-    <row r="26" s="21" customFormat="1" ht="13.5" spans="5:7">
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" s="21" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A27" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="39" t="s">
+      <c r="I23" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" s="24" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" s="24" customFormat="1" ht="13.5" spans="5:7">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" s="24" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A26" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" s="24" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A27" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" s="21" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A28" s="50" t="s">
+      <c r="C27" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" s="24" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A28" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" s="24" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A29" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" s="24" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A30" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-    </row>
-    <row r="29" s="21" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A29" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" s="21" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A30" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" s="21" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A31" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="39" t="s">
+      <c r="C30" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" s="24" customFormat="1" ht="13.5"/>
+    <row r="32" s="24" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A32" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" s="21" customFormat="1" ht="13.5"/>
-    <row r="33" s="21" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A33" s="56" t="s">
+    </row>
+    <row r="33" s="24" customFormat="1" ht="13.5"/>
+    <row r="34" s="24" customFormat="1" ht="13.5"/>
+    <row r="35" s="24" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A35" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" s="21" customFormat="1" ht="13.5"/>
-    <row r="35" s="21" customFormat="1" ht="13.5"/>
-    <row r="36" s="21" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A36" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="37" t="s">
+    <row r="36" s="24" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A36" s="38">
+        <v>2.86</v>
+      </c>
+      <c r="B36" s="38">
+        <v>2.937</v>
+      </c>
+      <c r="C36" s="58">
+        <f>A36/B36</f>
+        <v>0.973782771535581</v>
+      </c>
+    </row>
+    <row r="40" ht="106" customHeight="1" spans="1:13">
+      <c r="A40" s="59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" s="21" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A37" s="37">
-        <v>2.86</v>
-      </c>
-      <c r="B37" s="37">
-        <v>2.937</v>
-      </c>
-      <c r="C37" s="57">
-        <f>A37/B37</f>
-        <v>0.973782771535581</v>
-      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2647,14 +2607,14 @@
   <sheetPr/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:V7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:22">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="1"/>
@@ -2676,268 +2636,268 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
     </row>
     <row r="2" s="4" customFormat="1" ht="22" customHeight="1" spans="1:22">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:22">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:22">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:22">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:22">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:22">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:22">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
     </row>
     <row r="9" ht="69" customHeight="1" spans="1:22">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
     </row>
     <row r="10" ht="218" customHeight="1" spans="1:22">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-    </row>
-    <row r="11" ht="174" customHeight="1" spans="1:22">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+    </row>
+    <row r="11" ht="167" customHeight="1" spans="1:22">
+      <c r="A11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="4"/>
@@ -3265,7 +3225,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I16" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3295,7 +3255,7 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" ht="192" customHeight="1" spans="1:16">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="1"/>
@@ -3349,10 +3309,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3432,36 +3392,34 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:20">
-      <c r="A4" s="15" t="s">
+    <row r="4" customFormat="1" ht="6" hidden="1" customHeight="1"/>
+    <row r="5" customFormat="1" hidden="1"/>
+    <row r="7" s="17" customFormat="1" ht="114" customHeight="1" spans="1:20">
+      <c r="A7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" customFormat="1" ht="6" hidden="1" customHeight="1"/>
-    <row r="6" customFormat="1" hidden="1"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+    </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3482,119 +3440,40 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" ht="26" customHeight="1" spans="1:1">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-    </row>
+    <row r="9" customFormat="1" ht="16" customHeight="1"/>
+    <row r="10" customFormat="1" ht="16" customHeight="1"/>
+    <row r="11" customFormat="1" ht="16" customHeight="1"/>
+    <row r="12" customFormat="1" ht="16" customHeight="1"/>
+    <row r="13" customFormat="1" ht="16" customHeight="1"/>
+    <row r="14" customFormat="1" ht="16" customHeight="1"/>
+    <row r="15" customFormat="1" ht="16" customHeight="1"/>
+    <row r="16" customFormat="1" ht="16" customHeight="1"/>
+    <row r="17" customFormat="1" ht="16" customHeight="1"/>
+    <row r="18" customFormat="1" ht="16" customHeight="1"/>
+    <row r="19" customFormat="1" ht="16" customHeight="1"/>
+    <row r="20" customFormat="1" ht="16" customHeight="1"/>
+    <row r="21" customFormat="1" ht="16" customHeight="1"/>
+    <row r="22" customFormat="1" ht="16" customHeight="1"/>
+    <row r="23" customFormat="1" ht="16" customHeight="1"/>
+    <row r="24" customFormat="1" ht="16" customHeight="1"/>
+    <row r="25" customFormat="1" ht="16" customHeight="1"/>
+    <row r="26" customFormat="1" ht="16" customHeight="1"/>
+    <row r="27" customFormat="1" ht="16" customHeight="1"/>
+    <row r="28" customFormat="1" ht="16" customHeight="1"/>
+    <row r="29" customFormat="1" ht="16" customHeight="1"/>
+    <row r="30" customFormat="1" ht="16" customHeight="1"/>
+    <row r="31" customFormat="1" ht="16" customHeight="1"/>
+    <row r="32" customFormat="1" ht="16" customHeight="1"/>
+    <row r="33" customFormat="1" ht="16" customHeight="1"/>
+    <row r="34" customFormat="1" ht="16" customHeight="1"/>
+    <row r="35" customFormat="1" ht="16" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A8:T9"/>
+    <mergeCell ref="A7:T8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="http://www.zgzcinfo.cn/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3606,8 +3485,8 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3642,7 +3521,7 @@
     </row>
     <row r="2" ht="18.75" spans="1:20">
       <c r="A2" s="15" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3666,7 +3545,7 @@
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:20">
       <c r="A3" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3690,12 +3569,12 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="67" customHeight="1" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3712,12 +3591,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="148" customHeight="1" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3733,52 +3612,52 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" ht="174" customHeight="1" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3807,8 +3686,8 @@
   <sheetPr/>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3821,7 +3700,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -3842,244 +3721,629 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" ht="67" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="67" customHeight="1" spans="1:19">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" ht="18.75" spans="1:19">
+      <c r="A3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:19">
+      <c r="A4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:19">
+      <c r="A5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" ht="66" customHeight="1" spans="1:19">
+      <c r="A6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" ht="101" customHeight="1" spans="1:19">
+      <c r="A7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" ht="126" customHeight="1" spans="1:19">
+      <c r="A8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" ht="18.75" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+    </row>
+    <row r="9" ht="106" customHeight="1" spans="1:19">
+      <c r="A9" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" ht="81" spans="1:19">
+      <c r="A10" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+    </row>
+    <row r="11" ht="47" customHeight="1" spans="1:19">
+      <c r="A11" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+    </row>
+    <row r="12" ht="142" customHeight="1" spans="1:19">
+      <c r="A12" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" ht="66" customHeight="1" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+    </row>
+    <row r="13" ht="154" customHeight="1" spans="1:19">
+      <c r="A13" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" ht="101" customHeight="1" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:19">
+      <c r="A14" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" ht="62" customHeight="1" spans="1:4">
-      <c r="A8" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="1:19">
+      <c r="A15" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" ht="54" spans="1:19">
+      <c r="A16" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" ht="66" customHeight="1" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" ht="84" customHeight="1" spans="1:19">
+      <c r="A17" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" ht="48" customHeight="1" spans="1:3">
-      <c r="A10" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:19">
+      <c r="A18" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" ht="34" customHeight="1" spans="1:3">
-      <c r="A11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" ht="173" customHeight="1" spans="1:4">
-      <c r="A12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" ht="150" customHeight="1" spans="1:3">
-      <c r="A13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" ht="48" customHeight="1" spans="1:3">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1" spans="1:3">
-      <c r="A15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" ht="60" customHeight="1" spans="1:3">
-      <c r="A16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" ht="84" customHeight="1" spans="1:3">
-      <c r="A17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>132</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" ht="40.5" spans="1:3">
+        <v>135</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" ht="45" customHeight="1" spans="1:19">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" ht="148.5" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" ht="148.5" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" ht="40.5" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" ht="43" customHeight="1" spans="1:19">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="3" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" ht="209" customHeight="1" spans="1:3">
+        <v>144</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" ht="209" customHeight="1" spans="1:19">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1" spans="1:3">
-      <c r="A25" t="s">
-        <v>162</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:19">
+      <c r="A25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" ht="27" spans="1:3">
-      <c r="A26" t="s">
-        <v>164</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" ht="34" customHeight="1" spans="1:19">
+      <c r="A26" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
-        <v>165</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4104,14 +4368,14 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q2"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4133,9 +4397,9 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="244" customHeight="1" spans="1:17">
+    <row r="2" ht="145" customHeight="1" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4177,7 +4441,7 @@
   <sheetData>
     <row r="16" ht="28" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/18 financial/self_long.xlsx
+++ b/18 financial/self_long.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="5"/>
+    <workbookView windowWidth="23460" windowHeight="9900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01 逻辑" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
   <si>
     <t>趋势价值要领：</t>
   </si>
@@ -58,6 +58,11 @@
   </si>
   <si>
     <t xml:space="preserve">年报、研报、利润表、现金流量表、资产负债表   萝卜投研、理杏仁、i问财、东方财富网的研报模块、股票研究报告网、慧博智能策略终端   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、价投股/股息股（如白马股）
+关键词：安全边际；低估值；超长线持有、越跌越买；
+</t>
   </si>
   <si>
     <t>整体市场风险以及合适投资机会</t>
@@ -257,30 +262,33 @@
 </t>
   </si>
   <si>
+    <t>1，他的资产不是随着时间折旧，而是随着时间增值，越久越值钱。
+2，它的产品无论朝代如何更替还是社会发展到什么程度，都是被需要的。
+3，他可以依靠内生性增长，不需要再投入就可以实现长期稳定发展。
+4，他的分红率要高
+首先可以将所有的制造业、农林牧渔养殖、银行、保险（纸币必然这就贬值）几乎全部排除掉。
+我能想到资产永不折旧（甚至历久弥新你）的公司大概有几类。
+一是品牌。以白酒的品牌最为为人熟知，如茅台、五粮液、国窖、剑南春。重要我们的文化持续延伸，这些白酒的品牌永不折旧。此外，还有卖水的农夫山泉、卖剪刀的张小泉、卖月饼的广州酒家。
+二是矿产资源。煤炭石油天然气、铜铁金银钼锂稀土，人类对资源的需求永无止境，只要剩余储量足够大，可以看做几乎永不折旧。
+三是某种独特的味道。主要集中在食品饮料行业，可口可乐、桃李面包、洽洽香瓜子、安井丸子。这类产品并像白酒那么昂贵，但对一部分人形成了永恒的味道吸引力（我就是桃李面包和洽洽香瓜子的忠实消费者），这种资产同样永不折旧
+四是某种特例：如分众的电梯媒体网络</t>
+  </si>
+  <si>
     <t xml:space="preserve">                             财务风险</t>
   </si>
   <si>
     <t xml:space="preserve">风险避雷：
-现金肖像
+现金肖像：
 小熊基本值:十年现金流总和/十年资本开支总和&gt;100%,&gt;200%优秀
 小熊增长值:(第十年净利润-第一年净利润)/十年资本开支&gt;10%,&gt;30%优秀
 连续2年应收账款上升幅度大于营业收入上升幅度，需警惕
 连续两年存货增长大于营业收入的增长，这家公司的存货可能有问题
 如果一家公司的流动负债远大于流动资产的话，说明这家公司已经非常接近于破产了
 自由现金流更难作假，能衡量公司是否健康
+负债&gt;60%要小心，同行对比，多元化经营风险
 5到9折的安全边际，安全边际不是万能的，没有安全边际是万万不能的，在估值的基础上打折
 配合的指标
 </t>
-  </si>
-  <si>
-    <t>风险：
-怎么躲过崩盘，只能尽快观测。
-a崩盘不外乎市场资金紧张了，如2015年6月暴跌前，银行拆借利率对10年期利率的贴水在变小，说明流动性紧张
-b连擦鞋的孩童都大厅股票就离崩盘不远了
-c 市盈率很高，风险很大。A股市盈率高，杠杆大，在上证指数到5000点，整体市盈率高，在跌破十日均线后就离场了
-a买看跌期权保护，如3个月期权费用是3%，如果不跌也就少赚了3%而已 b逐步把资产转移到低估值的资产或股票
-公司风险：
-负债&gt;60%要小心，同行对比，多元化经营风险</t>
   </si>
   <si>
     <t xml:space="preserve">                         四维判断（政策、资金、公司质地、低估）</t>
@@ -596,6 +604,12 @@
 五档容错（间隔10%-15%）调仓“强不换弱”“弱小赚可换强”“挡位互换”很多第四第五档的钱根本用不到可以挪到别的地方防守，滚动</t>
   </si>
   <si>
+    <t xml:space="preserve">左侧买入有一个原则，就是所选择的标的是低估值，业绩靠谱，绝对不是垃圾股和所谓赛道股。而
+ 斐波那契数列（份数，从第三项开始，都是前面两项之和）：1份，1份，2份，3份，5份，8份，13份，21份……取决于计划好的资金量和持股数。买卖速度、资金消耗量都介于等差和等比数之间，越往后越趋近于黄金分割。这种买卖法计算到第⑦项，因为假定买入时间冗长——建仓时间长达3个月，适合跌下去长时间在低位横盘的情况
+ 卖出也是金字塔卖出法。中间有波动就采用卖二买一。 
+</t>
+  </si>
+  <si>
     <t>每年30%的资产移到债券，最好根据美林时钟。</t>
   </si>
 </sst>
@@ -604,13 +618,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -680,37 +694,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,45 +715,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,7 +730,84 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -786,23 +816,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,7 +831,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,19 +894,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,31 +978,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +1002,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,13 +1026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,73 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,24 +1154,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1173,11 +1169,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,17 +1199,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,121 +1259,121 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1368,22 +1382,22 @@
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1507,10 +1521,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1554,7 +1568,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2002,10 +2016,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:V9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2112,8 +2126,34 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
+    <row r="13" ht="87" customHeight="1" spans="1:22">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="A3:V3"/>
@@ -2126,6 +2166,7 @@
     <mergeCell ref="A10:V10"/>
     <mergeCell ref="A11:V11"/>
     <mergeCell ref="A12:V12"/>
+    <mergeCell ref="A13:V13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2136,10 +2177,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2152,7 +2193,7 @@
   <sheetData>
     <row r="1" s="23" customFormat="1" ht="51" customHeight="1" spans="1:4">
       <c r="A1" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -2160,7 +2201,7 @@
     </row>
     <row r="2" s="23" customFormat="1" ht="28" customHeight="1" spans="1:34">
       <c r="A2" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -2198,7 +2239,7 @@
     </row>
     <row r="3" s="23" customFormat="1" ht="32" customHeight="1" spans="1:4">
       <c r="A3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2206,31 +2247,31 @@
     </row>
     <row r="4" s="23" customFormat="1" ht="74" customHeight="1" spans="1:4">
       <c r="A4" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
     </row>
     <row r="5" s="23" customFormat="1" ht="27" customHeight="1" spans="1:4">
       <c r="A5" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" s="23" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A6" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -2241,7 +2282,7 @@
     </row>
     <row r="7" s="23" customFormat="1" ht="28" customHeight="1" spans="1:4">
       <c r="A7" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -2252,7 +2293,7 @@
     </row>
     <row r="8" s="23" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A8" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="34" t="str">
         <f>IF(D6="符合条件","可以入场",IF(D7="符合条件","可以入场","不能入场"))</f>
@@ -2263,13 +2304,13 @@
     </row>
     <row r="11" s="24" customFormat="1" ht="13.5" spans="1:2">
       <c r="A11" s="37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="37"/>
     </row>
     <row r="12" s="24" customFormat="1" ht="13.5" spans="1:1">
       <c r="A12" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" s="24" customFormat="1" ht="13.5" spans="5:6">
@@ -2278,13 +2319,13 @@
     </row>
     <row r="14" s="24" customFormat="1" ht="13.5" spans="1:6">
       <c r="A14" s="39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="42"/>
@@ -2293,7 +2334,7 @@
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="38"/>
@@ -2301,11 +2342,11 @@
     <row r="16" s="24" customFormat="1" ht="13.5" spans="1:5">
       <c r="A16" s="39"/>
       <c r="B16" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="43"/>
       <c r="E16" s="38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" s="24" customFormat="1" ht="13.5" spans="1:9">
@@ -2313,24 +2354,24 @@
       <c r="B17" s="39"/>
       <c r="C17" s="44"/>
       <c r="E17" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" s="24" customFormat="1" ht="13.5" spans="1:9">
       <c r="A18" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="37"/>
       <c r="E18" s="45">
@@ -2347,7 +2388,7 @@
         <v>1.2952380952381</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" s="24" customFormat="1" ht="13.5" spans="5:9">
@@ -2365,7 +2406,7 @@
         <v>0.120401337792642</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" s="24" customFormat="1" ht="13.5" spans="5:9">
@@ -2383,15 +2424,15 @@
         <v>1.13939393939394</v>
       </c>
       <c r="I20" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" s="24" customFormat="1" ht="13.5" spans="1:9">
       <c r="A21" s="38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="45">
         <v>42156</v>
@@ -2407,15 +2448,15 @@
         <v>0.739463601532567</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" s="24" customFormat="1" ht="13.5" spans="1:9">
       <c r="A22" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="45">
         <v>43435</v>
@@ -2431,7 +2472,7 @@
         <v>1.03389830508475</v>
       </c>
       <c r="I22" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" s="24" customFormat="1" ht="13.5" spans="5:9">
@@ -2449,7 +2490,7 @@
         <v>0.8125</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" s="24" customFormat="1" ht="13.5" spans="5:9">
@@ -2466,13 +2507,13 @@
     </row>
     <row r="26" s="24" customFormat="1" ht="13.5" spans="1:7">
       <c r="A26" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
@@ -2480,16 +2521,16 @@
     </row>
     <row r="27" s="24" customFormat="1" ht="13.5" spans="1:9">
       <c r="A27" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="53"/>
@@ -2498,13 +2539,13 @@
     </row>
     <row r="28" s="24" customFormat="1" ht="13.5" spans="1:7">
       <c r="A28" s="54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
@@ -2512,10 +2553,10 @@
     </row>
     <row r="29" s="24" customFormat="1" ht="13.5" spans="1:7">
       <c r="A29" s="55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="39"/>
       <c r="E29" s="38"/>
@@ -2524,13 +2565,13 @@
     </row>
     <row r="30" s="24" customFormat="1" ht="13.5" spans="1:7">
       <c r="A30" s="56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
@@ -2539,20 +2580,20 @@
     <row r="31" s="24" customFormat="1" ht="13.5"/>
     <row r="32" s="24" customFormat="1" ht="13.5" spans="1:1">
       <c r="A32" s="57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" s="24" customFormat="1" ht="13.5"/>
     <row r="34" s="24" customFormat="1" ht="13.5"/>
     <row r="35" s="24" customFormat="1" ht="13.5" spans="1:3">
       <c r="A35" s="38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" s="24" customFormat="1" ht="13.5" spans="1:3">
@@ -2569,7 +2610,7 @@
     </row>
     <row r="40" ht="106" customHeight="1" spans="1:13">
       <c r="A40" s="59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="60"/>
       <c r="C40" s="60"/>
@@ -2584,13 +2625,29 @@
       <c r="L40" s="60"/>
       <c r="M40" s="60"/>
     </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="59"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A41:M41"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
@@ -2607,7 +2664,7 @@
   <sheetPr/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:V9"/>
     </sheetView>
   </sheetViews>
@@ -2615,7 +2672,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:22">
       <c r="A1" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2667,7 +2724,7 @@
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:22">
       <c r="A3" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2693,7 +2750,7 @@
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:22">
       <c r="A4" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -2719,7 +2776,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:22">
       <c r="A5" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -2745,7 +2802,7 @@
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:22">
       <c r="A6" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -2771,7 +2828,7 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:22">
       <c r="A7" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -2797,7 +2854,7 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:22">
       <c r="A8" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -2823,7 +2880,7 @@
     </row>
     <row r="9" ht="69" customHeight="1" spans="1:22">
       <c r="A9" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -2849,7 +2906,7 @@
     </row>
     <row r="10" ht="218" customHeight="1" spans="1:22">
       <c r="A10" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -2873,9 +2930,9 @@
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
     </row>
-    <row r="11" ht="167" customHeight="1" spans="1:22">
+    <row r="11" ht="153" customHeight="1" spans="1:22">
       <c r="A11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -2899,8 +2956,10 @@
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="4"/>
+    <row r="12" ht="159" customHeight="1" spans="1:22">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3222,17 +3281,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3256,7 +3315,7 @@
     </row>
     <row r="2" ht="192" customHeight="1" spans="1:16">
       <c r="A2" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3274,32 +3333,10 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="35" ht="216" customHeight="1" spans="1:17">
-      <c r="A35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A35:Q35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3322,7 +3359,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3346,7 +3383,7 @@
     </row>
     <row r="2" ht="18.75" spans="1:20">
       <c r="A2" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3370,7 +3407,7 @@
     </row>
     <row r="3" ht="18.75" spans="1:20">
       <c r="A3" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3396,7 +3433,7 @@
     <row r="5" customFormat="1" hidden="1"/>
     <row r="7" s="17" customFormat="1" ht="114" customHeight="1" spans="1:20">
       <c r="A7" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -3485,7 +3522,7 @@
   <sheetPr/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -3497,7 +3534,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3521,7 +3558,7 @@
     </row>
     <row r="2" ht="18.75" spans="1:20">
       <c r="A2" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3545,7 +3582,7 @@
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:20">
       <c r="A3" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3569,12 +3606,12 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="67" customHeight="1" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3591,12 +3628,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="148" customHeight="1" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3612,52 +3649,52 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" ht="174" customHeight="1" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3686,7 +3723,7 @@
   <sheetPr/>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -3700,7 +3737,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -3723,7 +3760,7 @@
     </row>
     <row r="2" ht="67" customHeight="1" spans="1:19">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -3746,16 +3783,16 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3775,10 +3812,10 @@
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:19">
       <c r="A4" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -3798,10 +3835,10 @@
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:19">
       <c r="A5" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -3821,13 +3858,13 @@
     </row>
     <row r="6" ht="66" customHeight="1" spans="1:19">
       <c r="A6" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -3847,13 +3884,13 @@
     </row>
     <row r="7" ht="101" customHeight="1" spans="1:19">
       <c r="A7" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3873,14 +3910,14 @@
     </row>
     <row r="8" ht="126" customHeight="1" spans="1:19">
       <c r="A8" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -3900,14 +3937,14 @@
     </row>
     <row r="9" ht="106" customHeight="1" spans="1:19">
       <c r="A9" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -3927,11 +3964,11 @@
     </row>
     <row r="10" ht="81" spans="1:19">
       <c r="A10" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -3951,11 +3988,11 @@
     </row>
     <row r="11" ht="47" customHeight="1" spans="1:19">
       <c r="A11" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -3975,14 +4012,14 @@
     </row>
     <row r="12" ht="142" customHeight="1" spans="1:19">
       <c r="A12" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -4002,11 +4039,11 @@
     </row>
     <row r="13" ht="154" customHeight="1" spans="1:19">
       <c r="A13" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -4026,11 +4063,11 @@
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:19">
       <c r="A14" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4050,11 +4087,11 @@
     </row>
     <row r="15" ht="35" customHeight="1" spans="1:19">
       <c r="A15" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -4074,11 +4111,11 @@
     </row>
     <row r="16" ht="54" spans="1:19">
       <c r="A16" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -4098,11 +4135,11 @@
     </row>
     <row r="17" ht="84" customHeight="1" spans="1:19">
       <c r="A17" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -4122,11 +4159,11 @@
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:19">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -4146,13 +4183,13 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -4174,10 +4211,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -4197,16 +4234,16 @@
     </row>
     <row r="21" ht="148.5" spans="1:19">
       <c r="A21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -4228,7 +4265,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -4248,13 +4285,13 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -4276,10 +4313,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -4299,11 +4336,11 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:19">
       <c r="A25" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -4323,11 +4360,11 @@
     </row>
     <row r="26" ht="34" customHeight="1" spans="1:19">
       <c r="A26" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -4365,17 +4402,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4399,7 +4436,7 @@
     </row>
     <row r="2" ht="145" customHeight="1" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4418,10 +4455,172 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
+    <row r="3" ht="86" customHeight="1" spans="1:17">
+      <c r="A3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A10:Q10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4441,7 +4640,7 @@
   <sheetData>
     <row r="16" ht="28" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
